--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gnai2-Tshr.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H2">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I2">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J2">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.8749903333333334</v>
+        <v>0.051093</v>
       </c>
       <c r="N2">
-        <v>2.624971</v>
+        <v>0.153279</v>
       </c>
       <c r="O2">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="P2">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="Q2">
-        <v>161.0530750606569</v>
+        <v>3.265414038957</v>
       </c>
       <c r="R2">
-        <v>1449.477675545912</v>
+        <v>29.388726350613</v>
       </c>
       <c r="S2">
-        <v>0.1738641585406248</v>
+        <v>0.005900853318174545</v>
       </c>
       <c r="T2">
-        <v>0.1738641585406248</v>
+        <v>0.005900853318174548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H3">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I3">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J3">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.444111</v>
       </c>
       <c r="O3">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="P3">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="Q3">
-        <v>149.9565489826658</v>
+        <v>52.06867458796854</v>
       </c>
       <c r="R3">
-        <v>1349.608940843992</v>
+        <v>468.6180712917169</v>
       </c>
       <c r="S3">
-        <v>0.16188495126037</v>
+        <v>0.09409208374491551</v>
       </c>
       <c r="T3">
-        <v>0.1618849512603701</v>
+        <v>0.09409208374491555</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>184.0626906666667</v>
+        <v>63.91118233333333</v>
       </c>
       <c r="H4">
-        <v>552.188072</v>
+        <v>191.733547</v>
       </c>
       <c r="I4">
-        <v>0.6510505751503485</v>
+        <v>0.4067926910433548</v>
       </c>
       <c r="J4">
-        <v>0.6510505751503486</v>
+        <v>0.4067926910433549</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.586789</v>
+        <v>2.656449666666667</v>
       </c>
       <c r="N4">
-        <v>4.760367</v>
+        <v>7.969348999999999</v>
       </c>
       <c r="O4">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812916</v>
       </c>
       <c r="P4">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812917</v>
       </c>
       <c r="Q4">
-        <v>292.0686528602694</v>
+        <v>169.7768390056559</v>
       </c>
       <c r="R4">
-        <v>2628.617875742425</v>
+        <v>1527.991551050903</v>
       </c>
       <c r="S4">
-        <v>0.3153014653493537</v>
+        <v>0.3067997539802647</v>
       </c>
       <c r="T4">
-        <v>0.3153014653493537</v>
+        <v>0.3067997539802648</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>172.3302</v>
       </c>
       <c r="I5">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J5">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.8749903333333334</v>
+        <v>0.051093</v>
       </c>
       <c r="N5">
-        <v>2.624971</v>
+        <v>0.153279</v>
       </c>
       <c r="O5">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="P5">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="Q5">
-        <v>50.26241971380001</v>
+        <v>2.9349556362</v>
       </c>
       <c r="R5">
-        <v>452.3617774242001</v>
+        <v>26.4146007258</v>
       </c>
       <c r="S5">
-        <v>0.05426058028674256</v>
+        <v>0.005303689669349741</v>
       </c>
       <c r="T5">
-        <v>0.05426058028674256</v>
+        <v>0.005303689669349743</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>172.3302</v>
       </c>
       <c r="I6">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J6">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>2.444111</v>
       </c>
       <c r="O6">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="P6">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="Q6">
-        <v>46.7993486058</v>
+        <v>46.79934860579999</v>
       </c>
       <c r="R6">
         <v>421.1941374522</v>
       </c>
       <c r="S6">
-        <v>0.05052203667972355</v>
+        <v>0.08457000803400377</v>
       </c>
       <c r="T6">
-        <v>0.05052203667972355</v>
+        <v>0.0845700080340038</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>172.3302</v>
       </c>
       <c r="I7">
-        <v>0.2031838091312023</v>
+        <v>0.3656254573230189</v>
       </c>
       <c r="J7">
-        <v>0.2031838091312023</v>
+        <v>0.365625457323019</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.586789</v>
+        <v>2.656449666666667</v>
       </c>
       <c r="N7">
-        <v>4.760367</v>
+        <v>7.969348999999999</v>
       </c>
       <c r="O7">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812916</v>
       </c>
       <c r="P7">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812917</v>
       </c>
       <c r="Q7">
-        <v>91.15055524260002</v>
+        <v>152.5955007822</v>
       </c>
       <c r="R7">
-        <v>820.3549971834002</v>
+        <v>1373.3595070398</v>
       </c>
       <c r="S7">
-        <v>0.09840119216473621</v>
+        <v>0.2757517596196654</v>
       </c>
       <c r="T7">
-        <v>0.09840119216473621</v>
+        <v>0.2757517596196655</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H8">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I8">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J8">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.8749903333333334</v>
+        <v>0.051093</v>
       </c>
       <c r="N8">
-        <v>2.624971</v>
+        <v>0.153279</v>
       </c>
       <c r="O8">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="P8">
-        <v>0.2670516933349977</v>
+        <v>0.01450579975525089</v>
       </c>
       <c r="Q8">
-        <v>36.05864359177456</v>
+        <v>1.826849374875</v>
       </c>
       <c r="R8">
-        <v>324.5277923259711</v>
+        <v>16.441644373875</v>
       </c>
       <c r="S8">
-        <v>0.0389269545076304</v>
+        <v>0.003301256767726597</v>
       </c>
       <c r="T8">
-        <v>0.03892695450763041</v>
+        <v>0.003301256767726599</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H9">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I9">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J9">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>2.444111</v>
       </c>
       <c r="O9">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="P9">
-        <v>0.2486518827250642</v>
+        <v>0.2313022967634575</v>
       </c>
       <c r="Q9">
-        <v>33.57420994279011</v>
+        <v>29.13003511554167</v>
       </c>
       <c r="R9">
-        <v>302.167889485111</v>
+        <v>262.170316039875</v>
       </c>
       <c r="S9">
-        <v>0.03624489478497058</v>
+        <v>0.05264020498453813</v>
       </c>
       <c r="T9">
-        <v>0.0362448947849706</v>
+        <v>0.05264020498453816</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.21033366666667</v>
+        <v>35.755375</v>
       </c>
       <c r="H10">
-        <v>123.631001</v>
+        <v>107.266125</v>
       </c>
       <c r="I10">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336261</v>
       </c>
       <c r="J10">
-        <v>0.1457656157184491</v>
+        <v>0.2275818516336262</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.586789</v>
+        <v>2.656449666666667</v>
       </c>
       <c r="N10">
-        <v>4.760367</v>
+        <v>7.969348999999999</v>
       </c>
       <c r="O10">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812916</v>
       </c>
       <c r="P10">
-        <v>0.484296423939938</v>
+        <v>0.7541919034812917</v>
       </c>
       <c r="Q10">
-        <v>65.39210414859635</v>
+        <v>94.98235400029166</v>
       </c>
       <c r="R10">
-        <v>588.5289373373671</v>
+        <v>854.8411860026249</v>
       </c>
       <c r="S10">
-        <v>0.07059376642584814</v>
+        <v>0.1716403898813614</v>
       </c>
       <c r="T10">
-        <v>0.07059376642584815</v>
+        <v>0.1716403898813614</v>
       </c>
     </row>
   </sheetData>
